--- a/code/excels/dota/dota_items.xlsx
+++ b/code/excels/dota/dota_items.xlsx
@@ -11415,6 +11415,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="45.0833333333333" customWidth="1"/>
+    <col min="2" max="2" width="16.9166666666667" customWidth="1"/>
     <col min="3" max="3" width="18.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
@@ -33228,7 +33229,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="D1:CK2 B1:B2 K13:AQ13 AT13:CK13 D13:I13 B13 D3:AQ4 D5:AQ5 D6:AQ6 AX3:CK3 BJ4:CK4 BH5:CK5 BH6:CK6 D7:CK9 D10:AQ10 AT10:CK10 D11:AQ11 AT11:CK11 D12:AQ12 AT12:CK12 B3:B12 D16:AQ16 AT16:CK16 D17:AQ17 AT17:CK17 D18:AQ18 AV18:CK18 D19:AQ19 AX19:CK19 D20:AQ20 AV20:CK20 D21:AQ21 BD21:CK21 D22:AQ22 AT22:CK22 D23:AQ23 AT23:CK23 D24:AQ24 AX24:CK24 D25:CK25 D26:AQ26 AZ26:CK26 D27:AQ27 AT27:CK27 D28:AQ28 AT28:CK28 D29:AQ29 AT29:CK29 D30:AQ30 AV30:CK30 D31:AQ31 AT31:CK31 D32:AQ32 AT32:CK32 D33:AQ33 AT33:CK33 D34:AQ34 AT34:CK34 D35:AQ35 AT35:CK35 D36:AQ36 AT36:CK36 D37:AQ37 AT37:CK37 D38:AQ38 AT38:CK38 D39:AQ39 AT39:CK39 D40:AQ40 AT40:CK40 D41:AQ41 AT41:CK41 D42:AQ42 AT42:CK42 D43:AQ43 AV43:CK43 D44:AQ44 AT44:CK44 D45:AQ45 AV45:CK45 D46:AQ46 AT46:CK46 D47:AQ47 AT47:CK47 D48:AQ48 AT48:CK48 D49:AQ49 AV49:CK49 D50:AQ50 AT50:CK50 D51:AQ51 AV51:CK51 D52:AQ52 AX52:CK52 D53:CK53 D54:AQ54 AZ54:CK54 D55:AQ55 AX55:CK55 D56:AQ56 AV56:CK56 D57:AQ57 AV57:CK57 D58:AQ58 AX58:CK58 D59:AQ59 AX59:CK59 D60:AQ60 BF60:CK60 D61:AQ61 AZ61:CK61 D62:AQ62 BB62:CK62 D63:CK63 D64:AQ64 BL64:CK64 D65:AQ65 AX65:CK65 D66:AQ66 AV66:CK66 D67:CK68 D69:AQ69 AZ69:CK69 D70:CK71 D72:AQ72 AZ72:CK72 D73:AQ73 AZ73:CK73 D74:CK74 D75:AQ75 BN75:CK75 D76:AQ76 AT76:CK76 D77:AQ77 AT77:CK77 D78:AQ78 AT78:CK78 D79:AQ79 AT79:CK79 D80:AQ80 AT80:CK80 D81:AQ81 AT81:CK81 D82:AQ82 AT82:CK82 D83:AQ83 AT83:CK83 D84:AQ84 AT84:CK84 D85:AQ85 AV85:CK85 D86:AQ86 AT86:CK86 D87:AQ87 AT87:CK87 D88:CK88 D89:AQ89 AZ89:CK89 D90:CK90 D91:AQ91 CH91:CK91 D92:CK92 D93:AQ93 AX93:CK93 D94:CK94 D95:AQ95 AZ95:CK95 D96:CK96 D97:AQ97 BF97:CK97 D98:CK98 D99:AQ99 AV99:CK99 D100:CK100 D101:AQ101 BB101:CK101 D102:AQ102 AV102:CK102 D103:CK103 D104:AQ104 BB104:CK104 D105:CK105 D106:AQ106 BB106:CK106 D107:CK107 D108:AQ108 BB108:CK108 D109:CK109 D110:AQ110 BB110:CK110 D111:CK111 D112:AQ112 BB112:CK112 D113:CK113 D114:AQ114 AX114:CK114 D115:CK115 D116:AQ116 AX116:CK116 D117:CK117 D118:AQ118 BL118:CK118 D119:CK119 D120:AQ120 BP120:CK120 D121:CK121 D122:AQ122 BH122:BI122 BL122:CK122 D123:CK123 D124:AQ124 AX124:CK124 D125:CK125 D126:AQ126 BD126:CK126 D127:CK127 D128:AQ128 BD128:CK128 D129:CK129 D130:AQ130 BH130:CK130 D131:CK131 D132:AQ132 BH132:CK132 D133:CK133 D134:AQ134 BB134:CK134 D135:CK135 D136:AQ136 BD136:CK136 D137:CK137 D138:AQ138 AX138:CK138 D139:CK139 D140:AQ140 AZ140:CK140 D141:CK141 D142:AQ142 BN142:CK142 D143:CK147 D148:AQ148 BD148:CK148 D149:AQ149 BD149:CK149 D150:AQ150 BD150:CK150 D151:AQ151 BD151:CK151 D152:AQ152 BD152:CK152 D153:CK155 D156:AQ156 AV156:AW156 BV156:CK156 D157:AQ157 AV157:AW157 BV157:CK157 D158:AQ158 AV158:AW158 BV158:CK158 D159:CK159 D160:AQ160 AX160:CK160 D161:CK166 D167:AQ167 AV167:CK167 D168:CK168 D169:AQ169 BD169:CK169 D170:CK170 D171:AQ171 AX171:CK171 D172:CK172 D173:AQ173 BB173:CK173 D174:AQ174 AX174:CK174 D175:CK175 D176:AQ176 BL176:CK176 D177:CK177 D178:AQ178 BX178:CK178 D179:CK179 D180:AQ180 AZ180:CK180 D181:CK181 D182:AQ182 BB182:CK182 D183:CK183 D184:AQ184 BR184:CK184 D185:CK185 D186:AQ186 BF186:CK186 D187:CK187 D188:AQ188 BB188:CK188 D189:CK189 D190:AQ190 AZ190:CK190 D191:AQ191 BL191:CK191 D192:CK194 D195:AQ195 BP195:CK195 D196:CK196 D197:AQ197 BB197:CK197 D198:CK198 D199:AQ199 BP199:CK199 D200:CK200 D201:AQ201 BF201:CK201 D202:CK202 D203:AQ203 AX203:CK203 D204:CK204 D205:AQ205 BB205:CK205 D206:CK206 D207:AQ207 BD207:CK207 D208:CK208 D209:AQ209 AT209:CK209 D210:CK210 D211:AQ211 AZ211:CK211 D212:CK212 D213:AQ213 AT213:AU213 BD213:CK213 D214:CK214 D215:AQ215 AZ215:CK215 D216:CK216 D217:AQ217 AX217:CK217 D218:CK218 D219:AQ219 BF219:CK219 D220:CK220 D221:AQ221 BL221:CK221 D222:CK222 D223:AQ223 BV223:CK223 D224:CK224 D225:AQ225 AZ225:CK225 D226:CK226 D227:AQ227 AX227:CK227 D228:CK228 D229:AQ229 BL229:CK229 D230:CK230 D231:AQ231 BD231:CK231 D232:CK232 D233:AQ233 BL233:CK233 D234:CK234 D235:AQ235 BD235:CK235 D236:CK236 D237:AQ237 BF237:CK237 D238:CK238 D239:AQ239 BF239:CK239 D240:CK240 D241:AQ241 AV241:AW241 BF241:CK241 D242:CK242 D243:AQ243 BX243:CK243 D244:CK244 D245:AQ245 BF245:CK245 D246:CK246 D247:AQ247 AX247:CK247 D248:CK248 D249:AQ249 BP249:CK249 D250:CK250 D251:AQ251 BP251:CK251 D252:CK252 D253:AQ253 BF253:CK253 D254:CK254 D255:AQ255 BR255:CK255 D256:CK256 D257:AQ257 AX257:CK257 D258:CK258 D259:AQ259 AX259:CK259 D260:CK260 D261:AQ261 BF261:CK261 D262:CK262 D263:AQ263 BJ263:CK263 D264:CK264 D265:AQ265 BL265:CK265 D266:CK266 D267:AQ267 BB267:CK267 D268:CK268 D269:AQ269 AZ269:CK269 D270:CK270 D271:AQ271 BB271:CK271 D272:AQ272 BB272:CK272 D273:AQ273 AV273:CK273 D274:CK274 D275:AQ275 BD275:CK275 D276:CK276 D277:AQ277 AX277:CK277 D278:CK278 D279:AQ279 BD279:CK279 D280:CK280 D281:AQ281 BH281:CK281 D282:CK282 D283:AQ283 AZ283:CK283 D284:CK284 D285:AQ285 BF285:CK285 D286:AQ286 AZ286:CK286 D287:AQ287 AV287:CK287 D288:CK288 D289:AQ289 BD289:CK289 D290:CK290 D291:AQ291 BP291:CK291 D292:CK292 D293:AQ293 AZ293:CK293 D294:CK294 D295:AQ295 BD295:CK295 D296:CK296 D297:AQ297 BR297:CK297 D298:CK298 D299:AQ299 BD299:CK299 D300:CK300 D301:AQ301 BH301:CK301 D302:CK302 D303:AQ303 BL303:CK303 D304:AQ304 AT304:CK304 D305:CK305 D306:AQ306 BB306:CK306 D307:AQ307 AT307:CK307 D308:AQ308 AT308:CK308 D309:AQ309 AT309:CK309 D310:AQ310 AT310:CK310 D311:AQ311 AT311:CK311 D312:AQ312 AT312:CK312 D313:AQ313 AT313:CK313 D314:CK314 D315:AQ315 AV315:CK315 D316:CK316 D317:AQ317 AT317:CK317 D318:AQ318 AV318:CK318 D319:AQ319 AZ319:CK319 D320:AQ320 AV320:CK320 D321:AQ321 AX321:CK321 D322:AQ322 AZ322:CK322 D323:AQ323 AX323:CK323 D324:AQ324 AT324:CK324 D325:AQ325 BB325:CK325 D326:CK326 D327:AQ327 AX327:CK327 D328:AQ328 AX328:CK328 D329:AQ329 AX329:CK329 D330:AQ330 AV330:CK330 D331:AQ331 AV331:CK331 D332:AQ332 AX332:CK332 D333:CK333 D334:AQ334 AV334:CK334 D335:AQ335 AT335:CK335 D336:AQ336 AV336:CK336 D337:AQ337 AT337:CK337 D338:AQ338 AT338:CK338 D339:AQ339 AZ339:CK339 D340:AQ340 AX340:CK340 D341:AQ341 AX341:CK341 D342:AQ342 AX342:CK342 D343:AQ343 AX343:CK343 D344:AQ344 AV344:CK344 D345:AQ345 AV345:CK345 D346:AQ346 AX346:CK346 D347:AQ347 AZ347:CK347 D348:AQ348 AZ348:CK348 D349:AQ349 AV349:CK349 D350:CK350 D351:AQ351 BB351:CK351 D352:AQ352 AV352:CK352 D353:AQ353 AT353:CK353 D354:AQ354 AX354:CK354 D355:AQ355 AX355:CK355 D356:AQ356 AT356:CK356 D357:AQ357 AX357:CK357 D358:AQ358 AZ358:CK358 D359:AQ359 AZ359:CK359 D360:AQ360 AX360:CK360 D361:AQ361 AV361:CK361 D362:AQ362 BB362:CK362 D363:AQ363 BH363:CK363 D364:AQ364 BL364:CK364 D365:AQ365 AX365:CK365 D366:AQ366 AT366:CK366 D367:AQ367 AZ367:CK367 D368:AQ368 AZ368:CK368 D369:CK369 D370:AQ370 AX370:CK370 D371:CK371 D372:AQ372 BV372:CK372 D373:AQ373 AT373:CK373 D374:CK374 D375:AQ375 AT375:CK375 D376:AQ376 AV376:CK376 D377:AQ377 AZ377:CK377 D378:AQ378 AV378:CK378 D379:AQ379 AZ379:CK379 D380:AQ380 AX380:CK380 D381:AQ381 AZ381:CK381 D382:AQ382 AX382:CK382 D383:AQ383 AX383:CK383 D384:AQ384 BB384:CK384 D385:AQ385 AV385:CK385 D386:AQ386 AX386:CK386 D387:AQ387 BB387:CK387 D388:AQ388 BB388:CK388 D389:AQ389 AX389:CK389 D390:AQ390 AZ390:CK390 D391:AQ391 AV391:CK391 D392:AQ392 AX392:CK392 D393:AQ393 BD393:CK393 D394:AQ394 BD394:CK394 D395:AQ395 AX395:CK395 D396:AQ396 AZ396:CK396 D397:AQ397 BB397:CK397 D398:AQ398 AZ398:CK398 D399:AQ399 AZ399:CK399 D400:AQ400 BD400:CK400 D401:AQ401 AX401:CK401 D402:AQ402 BB402:CK402 D403:AQ403 BB403:CK403 D404:AQ404 BF404:CK404 D405:AQ405 AX405:CK405 D406:AQ406 AX406:CK406 B16:B406 D14:I15 B14:B15 A1:A2 M14:AQ14 AV14:CK14 M15:AQ15 AV15:CK15" numberStoredAsText="1"/>
+    <ignoredError sqref="AV15:CK15 M15:AQ15 AV14:CK14 M14:AQ14 A1:A2 B14:B15 D14:I15 B16:B406 AX406:CK406 D406:AQ406 AX405:CK405 D405:AQ405 BF404:CK404 D404:AQ404 BB403:CK403 D403:AQ403 BB402:CK402 D402:AQ402 AX401:CK401 D401:AQ401 BD400:CK400 D400:AQ400 AZ399:CK399 D399:AQ399 AZ398:CK398 D398:AQ398 BB397:CK397 D397:AQ397 AZ396:CK396 D396:AQ396 AX395:CK395 D395:AQ395 BD394:CK394 D394:AQ394 BD393:CK393 D393:AQ393 AX392:CK392 D392:AQ392 AV391:CK391 D391:AQ391 AZ390:CK390 D390:AQ390 AX389:CK389 D389:AQ389 BB388:CK388 D388:AQ388 BB387:CK387 D387:AQ387 AX386:CK386 D386:AQ386 AV385:CK385 D385:AQ385 BB384:CK384 D384:AQ384 AX383:CK383 D383:AQ383 AX382:CK382 D382:AQ382 AZ381:CK381 D381:AQ381 AX380:CK380 D380:AQ380 AZ379:CK379 D379:AQ379 AV378:CK378 D378:AQ378 AZ377:CK377 D377:AQ377 AV376:CK376 D376:AQ376 AT375:CK375 D375:AQ375 D374:CK374 AT373:CK373 D373:AQ373 BV372:CK372 D372:AQ372 D371:CK371 AX370:CK370 D370:AQ370 D369:CK369 AZ368:CK368 D368:AQ368 AZ367:CK367 D367:AQ367 AT366:CK366 D366:AQ366 AX365:CK365 D365:AQ365 BL364:CK364 D364:AQ364 BH363:CK363 D363:AQ363 BB362:CK362 D362:AQ362 AV361:CK361 D361:AQ361 AX360:CK360 D360:AQ360 AZ359:CK359 D359:AQ359 AZ358:CK358 D358:AQ358 AX357:CK357 D357:AQ357 AT356:CK356 D356:AQ356 AX355:CK355 D355:AQ355 AX354:CK354 D354:AQ354 AT353:CK353 D353:AQ353 AV352:CK352 D352:AQ352 BB351:CK351 D351:AQ351 D350:CK350 AV349:CK349 D349:AQ349 AZ348:CK348 D348:AQ348 AZ347:CK347 D347:AQ347 AX346:CK346 D346:AQ346 AV345:CK345 D345:AQ345 AV344:CK344 D344:AQ344 AX343:CK343 D343:AQ343 AX342:CK342 D342:AQ342 AX341:CK341 D341:AQ341 AX340:CK340 D340:AQ340 AZ339:CK339 D339:AQ339 AT338:CK338 D338:AQ338 AT337:CK337 D337:AQ337 AV336:CK336 D336:AQ336 AT335:CK335 D335:AQ335 AV334:CK334 D334:AQ334 D333:CK333 AX332:CK332 D332:AQ332 AV331:CK331 D331:AQ331 AV330:CK330 D330:AQ330 AX329:CK329 D329:AQ329 AX328:CK328 D328:AQ328 AX327:CK327 D327:AQ327 D326:CK326 BB325:CK325 D325:AQ325 AT324:CK324 D324:AQ324 AX323:CK323 D323:AQ323 AZ322:CK322 D322:AQ322 AX321:CK321 D321:AQ321 AV320:CK320 D320:AQ320 AZ319:CK319 D319:AQ319 AV318:CK318 D318:AQ318 AT317:CK317 D317:AQ317 D316:CK316 AV315:CK315 D315:AQ315 D314:CK314 AT313:CK313 D313:AQ313 AT312:CK312 D312:AQ312 AT311:CK311 D311:AQ311 AT310:CK310 D310:AQ310 AT309:CK309 D309:AQ309 AT308:CK308 D308:AQ308 AT307:CK307 D307:AQ307 BB306:CK306 D306:AQ306 D305:CK305 AT304:CK304 D304:AQ304 BL303:CK303 D303:AQ303 D302:CK302 BH301:CK301 D301:AQ301 D300:CK300 BD299:CK299 D299:AQ299 D298:CK298 BR297:CK297 D297:AQ297 D296:CK296 BD295:CK295 D295:AQ295 D294:CK294 AZ293:CK293 D293:AQ293 D292:CK292 BP291:CK291 D291:AQ291 D290:CK290 BD289:CK289 D289:AQ289 D288:CK288 AV287:CK287 D287:AQ287 AZ286:CK286 D286:AQ286 BF285:CK285 D285:AQ285 D284:CK284 AZ283:CK283 D283:AQ283 D282:CK282 BH281:CK281 D281:AQ281 D280:CK280 BD279:CK279 D279:AQ279 D278:CK278 AX277:CK277 D277:AQ277 D276:CK276 BD275:CK275 D275:AQ275 D274:CK274 AV273:CK273 D273:AQ273 BB272:CK272 D272:AQ272 BB271:CK271 D271:AQ271 D270:CK270 AZ269:CK269 D269:AQ269 D268:CK268 BB267:CK267 D267:AQ267 D266:CK266 BL265:CK265 D265:AQ265 D264:CK264 BJ263:CK263 D263:AQ263 D262:CK262 BF261:CK261 D261:AQ261 D260:CK260 AX259:CK259 D259:AQ259 D258:CK258 AX257:CK257 D257:AQ257 D256:CK256 BR255:CK255 D255:AQ255 D254:CK254 BF253:CK253 D253:AQ253 D252:CK252 BP251:CK251 D251:AQ251 D250:CK250 BP249:CK249 D249:AQ249 D248:CK248 AX247:CK247 D247:AQ247 D246:CK246 BF245:CK245 D245:AQ245 D244:CK244 BX243:CK243 D243:AQ243 D242:CK242 BF241:CK241 AV241:AW241 D241:AQ241 D240:CK240 BF239:CK239 D239:AQ239 D238:CK238 BF237:CK237 D237:AQ237 D236:CK236 BD235:CK235 D235:AQ235 D234:CK234 BL233:CK233 D233:AQ233 D232:CK232 BD231:CK231 D231:AQ231 D230:CK230 BL229:CK229 D229:AQ229 D228:CK228 AX227:CK227 D227:AQ227 D226:CK226 AZ225:CK225 D225:AQ225 D224:CK224 BV223:CK223 D223:AQ223 D222:CK222 BL221:CK221 D221:AQ221 D220:CK220 BF219:CK219 D219:AQ219 D218:CK218 AX217:CK217 D217:AQ217 D216:CK216 AZ215:CK215 D215:AQ215 D214:CK214 BD213:CK213 AT213:AU213 D213:AQ213 D212:CK212 AZ211:CK211 D211:AQ211 D210:CK210 AT209:CK209 D209:AQ209 D208:CK208 BD207:CK207 D207:AQ207 D206:CK206 BB205:CK205 D205:AQ205 D204:CK204 AX203:CK203 D203:AQ203 D202:CK202 BF201:CK201 D201:AQ201 D200:CK200 BP199:CK199 D199:AQ199 D198:CK198 BB197:CK197 D197:AQ197 D196:CK196 BP195:CK195 D195:AQ195 D192:CK194 BL191:CK191 D191:AQ191 AZ190:CK190 D190:AQ190 D189:CK189 BB188:CK188 D188:AQ188 D187:CK187 BF186:CK186 D186:AQ186 D185:CK185 BR184:CK184 D184:AQ184 D183:CK183 BB182:CK182 D182:AQ182 D181:CK181 AZ180:CK180 D180:AQ180 D179:CK179 BX178:CK178 D178:AQ178 D177:CK177 BL176:CK176 D176:AQ176 D175:CK175 AX174:CK174 D174:AQ174 BB173:CK173 D173:AQ173 D172:CK172 AX171:CK171 D171:AQ171 D170:CK170 BD169:CK169 D169:AQ169 D168:CK168 AV167:CK167 D167:AQ167 D161:CK166 AX160:CK160 D160:AQ160 D159:CK159 BV158:CK158 AV158:AW158 D158:AQ158 BV157:CK157 AV157:AW157 D157:AQ157 BV156:CK156 AV156:AW156 D156:AQ156 D153:CK155 BD152:CK152 D152:AQ152 BD151:CK151 D151:AQ151 BD150:CK150 D150:AQ150 BD149:CK149 D149:AQ149 BD148:CK148 D148:AQ148 D143:CK147 BN142:CK142 D142:AQ142 D141:CK141 AZ140:CK140 D140:AQ140 D139:CK139 AX138:CK138 D138:AQ138 D137:CK137 BD136:CK136 D136:AQ136 D135:CK135 BB134:CK134 D134:AQ134 D133:CK133 BH132:CK132 D132:AQ132 D131:CK131 BH130:CK130 D130:AQ130 D129:CK129 BD128:CK128 D128:AQ128 D127:CK127 BD126:CK126 D126:AQ126 D125:CK125 AX124:CK124 D124:AQ124 D123:CK123 BL122:CK122 BH122:BI122 D122:AQ122 D121:CK121 BP120:CK120 D120:AQ120 D119:CK119 BL118:CK118 D118:AQ118 D117:CK117 AX116:CK116 D116:AQ116 D115:CK115 AX114:CK114 D114:AQ114 D113:CK113 BB112:CK112 D112:AQ112 D111:CK111 BB110:CK110 D110:AQ110 D109:CK109 BB108:CK108 D108:AQ108 D107:CK107 BB106:CK106 D106:AQ106 D105:CK105 BB104:CK104 D104:AQ104 D103:CK103 AV102:CK102 D102:AQ102 BB101:CK101 D101:AQ101 D100:CK100 AV99:CK99 D99:AQ99 D98:CK98 BF97:CK97 D97:AQ97 D96:CK96 AZ95:CK95 D95:AQ95 D94:CK94 AX93:CK93 D93:AQ93 D92:CK92 CH91:CK91 D91:AQ91 D90:CK90 AZ89:CK89 D89:AQ89 D88:CK88 AT87:CK87 D87:AQ87 AT86:CK86 D86:AQ86 AV85:CK85 D85:AQ85 AT84:CK84 D84:AQ84 AT83:CK83 D83:AQ83 AT82:CK82 D82:AQ82 AT81:CK81 D81:AQ81 AT80:CK80 D80:AQ80 AT79:CK79 D79:AQ79 AT78:CK78 D78:AQ78 AT77:CK77 D77:AQ77 AT76:CK76 D76:AQ76 BN75:CK75 D75:AQ75 D74:CK74 AZ73:CK73 D73:AQ73 AZ72:CK72 D72:AQ72 D70:CK71 AZ69:CK69 D69:AQ69 D67:CK68 AV66:CK66 D66:AQ66 AX65:CK65 D65:AQ65 BL64:CK64 D64:AQ64 D63:CK63 BB62:CK62 D62:AQ62 AZ61:CK61 D61:AQ61 BF60:CK60 D60:AQ60 AX59:CK59 D59:AQ59 AX58:CK58 D58:AQ58 AV57:CK57 D57:AQ57 AV56:CK56 D56:AQ56 AX55:CK55 D55:AQ55 AZ54:CK54 D54:AQ54 D53:CK53 AX52:CK52 D52:AQ52 AV51:CK51 D51:AQ51 AT50:CK50 D50:AQ50 AV49:CK49 D49:AQ49 AT48:CK48 D48:AQ48 AT47:CK47 D47:AQ47 AT46:CK46 D46:AQ46 AV45:CK45 D45:AQ45 AT44:CK44 D44:AQ44 AV43:CK43 D43:AQ43 AT42:CK42 D42:AQ42 AT41:CK41 D41:AQ41 AT40:CK40 D40:AQ40 AT39:CK39 D39:AQ39 AT38:CK38 D38:AQ38 AT37:CK37 D37:AQ37 AT36:CK36 D36:AQ36 AT35:CK35 D35:AQ35 AT34:CK34 D34:AQ34 AT33:CK33 D33:AQ33 AT32:CK32 D32:AQ32 AT31:CK31 D31:AQ31 AV30:CK30 D30:AQ30 AT29:CK29 D29:AQ29 AT28:CK28 D28:AQ28 AT27:CK27 D27:AQ27 AZ26:CK26 D26:AQ26 D25:CK25 AX24:CK24 D24:AQ24 AT23:CK23 D23:AQ23 AT22:CK22 D22:AQ22 BD21:CK21 D21:AQ21 AV20:CK20 D20:AQ20 AX19:CK19 D19:AQ19 AV18:CK18 D18:AQ18 AT17:CK17 D17:AQ17 AT16:CK16 D16:AQ16 B3:B12 AT12:CK12 D12:AQ12 AT11:CK11 D11:AQ11 AT10:CK10 D10:AQ10 D7:CK9 BH6:CK6 BH5:CK5 BJ4:CK4 AX3:CK3 D6:AQ6 D5:AQ5 D3:AQ4 B13 D13:I13 AT13:CK13 K13:AQ13 B1:B2 D1:CK2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -34375,7 +34376,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A3:CO4 H1:CO2 A1:F2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:F2 H1:CO2 A3:CO4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/code/excels/dota/dota_items.xlsx
+++ b/code/excels/dota/dota_items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="12330" activeTab="1"/>
+    <workbookView windowWidth="24930" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -11414,8 +11414,8 @@
   <sheetPr/>
   <dimension ref="A1:CL406"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H2"/>
+    <sheetView tabSelected="1" topLeftCell="AN124" workbookViewId="0">
+      <selection activeCell="AW142" sqref="AW142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -11424,6 +11424,8 @@
     <col min="2" max="2" width="16.9166666666667" customWidth="1"/>
     <col min="3" max="3" width="18.3333333333333" customWidth="1"/>
     <col min="8" max="8" width="11.75" customWidth="1"/>
+    <col min="45" max="45" width="25.6666666666667" customWidth="1"/>
+    <col min="46" max="46" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:90">
@@ -17890,7 +17892,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="122" spans="1:64">
+    <row r="122" spans="1:62">
       <c r="A122" t="s">
         <v>691</v>
       </c>
@@ -17996,10 +17998,10 @@
       <c r="BH122">
         <v>25</v>
       </c>
-      <c r="BK122" t="s">
+      <c r="BI122" t="s">
         <v>157</v>
       </c>
-      <c r="BL122">
+      <c r="BJ122">
         <v>8</v>
       </c>
     </row>
@@ -33242,7 +33244,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="I374:CL374 I371:CL371 I369:CL369 I350:CL350 I333:CL333 I326:CL326 I316:CL316 I314:CL314 I305:CL305 I302:CL302 I300:CL300 I298:CL298 I296:CL296 I294:CL294 I292:CL292 I290:CL290 I288:CL288 I284:CL284 I282:CL282 I280:CL280 I278:CL278 I276:CL276 I274:CL274 I270:CL270 I268:CL268 I266:CL266 I264:CL264 I262:CL262 I260:CL260 I258:CL258 I256:CL256 I254:CL254 I252:CL252 I250:CL250 I248:CL248 I246:CL246 I244:CL244 I242:CL242 I240:CL240 I238:CL238 I236:CL236 I234:CL234 I232:CL232 I230:CL230 I228:CL228 I226:CL226 I224:CL224 I222:CL222 I220:CL220 I218:CL218 I216:CL216 I214:CL214 I212:CL212 I210:CL210 I208:CL208 I206:CL206 I204:CL204 I202:CL202 I200:CL200 I198:CL198 I196:CL196 I192:CL194 I189:CL189 I187:CL187 I185:CL185 I183:CL183 I181:CL181 I179:CL179 I177:CL177 I175:CL175 I172:CL172 I170:CL170 I168:CL168 I161:CL166 I159:CL159 I153:CL155 I143:CL147 I141:CL141 I139:CL139 I137:CL137 I135:CL135 I133:CL133 I131:CL131 I129:CL129 I127:CL127 I125:CL125 I123:CL123 I121:CL121 I119:CL119 I117:CL117 I115:CL115 I113:CL113 I111:CL111 I109:CL109 I107:CL107 I105:CL105 I103:CL103 I100:CL100 I98:CL98 I96:CL96 I94:CL94 I92:CL92 I90:CL90 I88:CL88 I74:CL74 I70:CL71 I67:CL68 I63:CL63 I53:CL53 I25:CL25 I7:CL9 I1:CL2 I406:AR406 I405:AR405 I404:AR404 I403:AR403 I402:AR402 I401:AR401 I400:AR400 I399:AR399 I398:AR398 I397:AR397 I396:AR396 I395:AR395 I394:AR394 I393:AR393 I392:AR392 I391:AR391 I390:AR390 I389:AR389 I388:AR388 I387:AR387 I386:AR386 I385:AR385 I384:AR384 I383:AR383 I382:AR382 I381:AR381 I380:AR380 I379:AR379 I378:AR378 I377:AR377 I376:AR376 I375:AR375 I373:AR373 I372:AR372 I370:AR370 I368:AR368 I367:AR367 I366:AR366 I365:AR365 I364:AR364 I363:AR363 I362:AR362 I361:AR361 I360:AR360 I359:AR359 I358:AR358 I357:AR357 I356:AR356 I355:AR355 I354:AR354 I353:AR353 I352:AR352 I351:AR351 I349:AR349 I348:AR348 I347:AR347 I346:AR346 I345:AR345 I344:AR344 I343:AR343 I342:AR342 I341:AR341 I340:AR340 I339:AR339 I338:AR338 I337:AR337 I336:AR336 I335:AR335 I334:AR334 I332:AR332 I331:AR331 I330:AR330 I329:AR329 I328:AR328 I327:AR327 I325:AR325 I324:AR324 I323:AR323 I322:AR322 I321:AR321 I320:AR320 I319:AR319 I318:AR318 I317:AR317 I315:AR315 I313:AR313 I312:AR312 I311:AR311 I310:AR310 I309:AR309 I308:AR308 I307:AR307 I306:AR306 I304:AR304 I303:AR303 I301:AR301 I299:AR299 I297:AR297 I295:AR295 I293:AR293 I291:AR291 I289:AR289 I287:AR287 I286:AR286 I285:AR285 I283:AR283 I281:AR281 I279:AR279 I277:AR277 I275:AR275 I273:AR273 I272:AR272 I271:AR271 I269:AR269 I267:AR267 I265:AR265 I263:AR263 I261:AR261 I259:AR259 I257:AR257 I255:AR255 I253:AR253 I251:AR251 I249:AR249 I247:AR247 I245:AR245 I243:AR243 I241:AR241 I239:AR239 I237:AR237 I235:AR235 I233:AR233 I231:AR231 I229:AR229 I227:AR227 I225:AR225 I223:AR223 I221:AR221 I219:AR219 I217:AR217 I215:AR215 I213:AR213 I211:AR211 I209:AR209 I207:AR207 I205:AR205 I203:AR203 I201:AR201 I199:AR199 I197:AR197 I195:AR195 I191:AR191 I190:AR190 I188:AR188 I186:AR186 I184:AR184 I182:AR182 I180:AR180 I178:AR178 I176:AR176 I174:AR174 I173:AR173 I171:AR171 I169:AR169 I167:AR167 I160:AR160 I158:AR158 I157:AR157 I156:AR156 I152:AR152 I151:AR151 I150:AR150 I149:AR149 I148:AR148 I142:AR142 I140:AR140 I138:AR138 I136:AR136 I134:AR134 I132:AR132 I130:AR130 I128:AR128 I126:AR126 I124:AR124 I122:AR122 I120:AR120 I118:AR118 I116:AR116 I114:AR114 I112:AR112 I110:AR110 I108:AR108 I106:AR106 I104:AR104 I102:AR102 I101:AR101 I99:AR99 I97:AR97 I95:AR95 I93:AR93 I91:AR91 I89:AR89 I87:AR87 I86:AR86 I85:AR85 I84:AR84 I83:AR83 I82:AR82 I81:AR81 I80:AR80 I79:AR79 I78:AR78 I77:AR77 I76:AR76 I75:AR75 I73:AR73 I72:AR72 I69:AR69 I66:AR66 I65:AR65 I64:AR64 I62:AR62 I61:AR61 I60:AR60 I59:AR59 I58:AR58 I57:AR57 I56:AR56 I55:AR55 I54:AR54 I52:AR52 I51:AR51 I50:AR50 I49:AR49 I48:AR48 I47:AR47 I46:AR46 I45:AR45 I44:AR44 I43:AR43 I42:AR42 I41:AR41 I40:AR40 I39:AR39 I38:AR38 I37:AR37 I36:AR36 I35:AR35 I34:AR34 I33:AR33 I32:AR32 I31:AR31 I30:AR30 I29:AR29 I28:AR28 I27:AR27 I26:AR26 I24:AR24 I23:AR23 I22:AR22 I21:AR21 I20:AR20 I19:AR19 I18:AR18 I17:AR17 I16:AR16 I12:AR12 I11:AR11 I10:AR10 I6:AR6 I5:AR5 I3:AR4 I14:J15 I13:J13 D1:G2 B1:B2 L13:AR13 AU13:CL13 D13:G13 B13 D3:G4 D5:G5 D6:G6 AY3:CL3 BK4:CL4 BI5:CL5 BI6:CL6 D7:G9 D10:G10 AU10:CL10 D11:G11 AU11:CL11 D12:G12 AU12:CL12 B3:B12 D16:G16 AU16:CL16 D17:G17 AU17:CL17 D18:G18 AW18:CL18 D19:G19 AY19:CL19 D20:G20 AW20:CL20 D21:G21 BE21:CL21 D22:G22 AU22:CL22 D23:G23 AU23:CL23 D24:G24 AY24:CL24 D25:G25 D26:G26 BA26:CL26 D27:G27 AU27:CL27 D28:G28 AU28:CL28 D29:G29 AU29:CL29 D30:G30 AW30:CL30 D31:G31 AU31:CL31 D32:G32 AU32:CL32 D33:G33 AU33:CL33 D34:G34 AU34:CL34 D35:G35 AU35:CL35 D36:G36 AU36:CL36 D37:G37 AU37:CL37 D38:G38 AU38:CL38 D39:G39 AU39:CL39 D40:G40 AU40:CL40 D41:G41 AU41:CL41 D42:G42 AU42:CL42 D43:G43 AW43:CL43 D44:G44 AU44:CL44 D45:G45 AW45:CL45 D46:G46 AU46:CL46 D47:G47 AU47:CL47 D48:G48 AU48:CL48 D49:G49 AW49:CL49 D50:G50 AU50:CL50 D51:G51 AW51:CL51 D52:G52 AY52:CL52 D53:G53 D54:G54 BA54:CL54 D55:G55 AY55:CL55 D56:G56 AW56:CL56 D57:G57 AW57:CL57 D58:G58 AY58:CL58 D59:G59 AY59:CL59 D60:G60 BG60:CL60 D61:G61 BA61:CL61 D62:G62 BC62:CL62 D63:G63 D64:G64 BM64:CL64 D65:G65 AY65:CL65 D66:G66 AW66:CL66 D67:G68 D69:G69 BA69:CL69 D70:G71 D72:G72 BA72:CL72 D73:G73 BA73:CL73 D74:G74 D75:G75 BO75:CL75 D76:G76 AU76:CL76 D77:G77 AU77:CL77 D78:G78 AU78:CL78 D79:G79 AU79:CL79 D80:G80 AU80:CL80 D81:G81 AU81:CL81 D82:G82 AU82:CL82 D83:G83 AU83:CL83 D84:G84 AU84:CL84 D85:G85 AW85:CL85 D86:G86 AU86:CL86 D87:G87 AU87:CL87 D88:G88 D89:G89 BA89:CL89 D90:G90 D91:G91 CI91:CL91 D92:G92 D93:G93 AY93:CL93 D94:G94 D95:G95 BA95:CL95 D96:G96 D97:G97 BG97:CL97 D98:G98 D99:G99 AW99:CL99 D100:G100 D101:G101 BC101:CL101 D102:G102 AW102:CL102 D103:G103 D104:G104 BC104:CL104 D105:G105 D106:G106 BC106:CL106 D107:G107 D108:G108 BC108:CL108 D109:G109 D110:G110 BC110:CL110 D111:G111 D112:G112 BC112:CL112 D113:G113 D114:G114 AY114:CL114 D115:G115 D116:G116 AY116:CL116 D117:G117 D118:G118 BM118:CL118 D119:G119 D120:G120 BQ120:CL120 D121:G121 D122:G122 BI122:BJ122 BM122:CL122 D123:G123 D124:G124 AY124:CL124 D125:G125 D126:G126 BE126:CL126 D127:G127 D128:G128 BE128:CL128 D129:G129 D130:G130 BI130:CL130 D131:G131 D132:G132 BI132:CL132 D133:G133 D134:G134 BC134:CL134 D135:G135 D136:G136 BE136:CL136 D137:G137 D138:G138 AY138:CL138 D139:G139 D140:G140 BA140:CL140 D141:G141 D142:G142 BO142:CL142 D143:G147 D148:G148 BE148:CL148 D149:G149 BE149:CL149 D150:G150 BE150:CL150 D151:G151 BE151:CL151 D152:G152 BE152:CL152 D153:G155 D156:G156 AW156:AX156 BW156:CL156 D157:G157 AW157:AX157 BW157:CL157 D158:G158 AW158:AX158 BW158:CL158 D159:G159 D160:G160 AY160:CL160 D161:G166 D167:G167 AW167:CL167 D168:G168 D169:G169 BE169:CL169 D170:G170 D171:G171 AY171:CL171 D172:G172 D173:G173 BC173:CL173 D174:G174 AY174:CL174 D175:G175 D176:G176 BM176:CL176 D177:G177 D178:G178 BY178:CL178 D179:G179 D180:G180 BA180:CL180 D181:G181 D182:G182 BC182:CL182 D183:G183 D184:G184 BS184:CL184 D185:G185 D186:G186 BG186:CL186 D187:G187 D188:G188 BC188:CL188 D189:G189 D190:G190 BA190:CL190 D191:G191 BM191:CL191 D192:G194 D195:G195 BQ195:CL195 D196:G196 D197:G197 BC197:CL197 D198:G198 D199:G199 BQ199:CL199 D200:G200 D201:G201 BG201:CL201 D202:G202 D203:G203 AY203:CL203 D204:G204 D205:G205 BC205:CL205 D206:G206 D207:G207 BE207:CL207 D208:G208 D209:G209 AU209:CL209 D210:G210 D211:G211 BA211:CL211 D212:G212 D213:G213 AU213:AV213 BE213:CL213 D214:G214 D215:G215 BA215:CL215 D216:G216 D217:G217 AY217:CL217 D218:G218 D219:G219 BG219:CL219 D220:G220 D221:G221 BM221:CL221 D222:G222 D223:G223 BW223:CL223 D224:G224 D225:G225 BA225:CL225 D226:G226 D227:G227 AY227:CL227 D228:G228 D229:G229 BM229:CL229 D230:G230 D231:G231 BE231:CL231 D232:G232 D233:G233 BM233:CL233 D234:G234 D235:G235 BE235:CL235 D236:G236 D237:G237 BG237:CL237 D238:G238 D239:G239 BG239:CL239 D240:G240 D241:G241 AW241:AX241 BG241:CL241 D242:G242 D243:G243 BY243:CL243 D244:G244 D245:G245 BG245:CL245 D246:G246 D247:G247 AY247:CL247 D248:G248 D249:G249 BQ249:CL249 D250:G250 D251:G251 BQ251:CL251 D252:G252 D253:G253 BG253:CL253 D254:G254 D255:G255 BS255:CL255 D256:G256 D257:G257 AY257:CL257 D258:G258 D259:G259 AY259:CL259 D260:G260 D261:G261 BG261:CL261 D262:G262 D263:G263 BK263:CL263 D264:G264 D265:G265 BM265:CL265 D266:G266 D267:G267 BC267:CL267 D268:G268 D269:G269 BA269:CL269 D270:G270 D271:G271 BC271:CL271 D272:G272 BC272:CL272 D273:G273 AW273:CL273 D274:G274 D275:G275 BE275:CL275 D276:G276 D277:G277 AY277:CL277 D278:G278 D279:G279 BE279:CL279 D280:G280 D281:G281 BI281:CL281 D282:G282 D283:G283 BA283:CL283 D284:G284 D285:G285 BG285:CL285 D286:G286 BA286:CL286 D287:G287 AW287:CL287 D288:G288 D289:G289 BE289:CL289 D290:G290 D291:G291 BQ291:CL291 D292:G292 D293:G293 BA293:CL293 D294:G294 D295:G295 BE295:CL295 D296:G296 D297:G297 BS297:CL297 D298:G298 D299:G299 BE299:CL299 D300:G300 D301:G301 BI301:CL301 D302:G302 D303:G303 BM303:CL303 D304:G304 AU304:CL304 D305:G305 D306:G306 BC306:CL306 D307:G307 AU307:CL307 D308:G308 AU308:CL308 D309:G309 AU309:CL309 D310:G310 AU310:CL310 D311:G311 AU311:CL311 D312:G312 AU312:CL312 D313:G313 AU313:CL313 D314:G314 D315:G315 AW315:CL315 D316:G316 D317:G317 AU317:CL317 D318:G318 AW318:CL318 D319:G319 BA319:CL319 D320:G320 AW320:CL320 D321:G321 AY321:CL321 D322:G322 BA322:CL322 D323:G323 AY323:CL323 D324:G324 AU324:CL324 D325:G325 BC325:CL325 D326:G326 D327:G327 AY327:CL327 D328:G328 AY328:CL328 D329:G329 AY329:CL329 D330:G330 AW330:CL330 D331:G331 AW331:CL331 D332:G332 AY332:CL332 D333:G333 D334:G334 AW334:CL334 D335:G335 AU335:CL335 D336:G336 AW336:CL336 D337:G337 AU337:CL337 D338:G338 AU338:CL338 D339:G339 BA339:CL339 D340:G340 AY340:CL340 D341:G341 AY341:CL341 D342:G342 AY342:CL342 D343:G343 AY343:CL343 D344:G344 AW344:CL344 D345:G345 AW345:CL345 D346:G346 AY346:CL346 D347:G347 BA347:CL347 D348:G348 BA348:CL348 D349:G349 AW349:CL349 D350:G350 D351:G351 BC351:CL351 D352:G352 AW352:CL352 D353:G353 AU353:CL353 D354:G354 AY354:CL354 D355:G355 AY355:CL355 D356:G356 AU356:CL356 D357:G357 AY357:CL357 D358:G358 BA358:CL358 D359:G359 BA359:CL359 D360:G360 AY360:CL360 D361:G361 AW361:CL361 D362:G362 BC362:CL362 D363:G363 BI363:CL363 D364:G364 BM364:CL364 D365:G365 AY365:CL365 D366:G366 AU366:CL366 D367:G367 BA367:CL367 D368:G368 BA368:CL368 D369:G369 D370:G370 AY370:CL370 D371:G371 D372:G372 BW372:CL372 D373:G373 AU373:CL373 D374:G374 D375:G375 AU375:CL375 D376:G376 AW376:CL376 D377:G377 BA377:CL377 D378:G378 AW378:CL378 D379:G379 BA379:CL379 D380:G380 AY380:CL380 D381:G381 BA381:CL381 D382:G382 AY382:CL382 D383:G383 AY383:CL383 D384:G384 BC384:CL384 D385:G385 AW385:CL385 D386:G386 AY386:CL386 D387:G387 BC387:CL387 D388:G388 BC388:CL388 D389:G389 AY389:CL389 D390:G390 BA390:CL390 D391:G391 AW391:CL391 D392:G392 AY392:CL392 D393:G393 BE393:CL393 D394:G394 BE394:CL394 D395:G395 AY395:CL395 D396:G396 BA396:CL396 D397:G397 BC397:CL397 D398:G398 BA398:CL398 D399:G399 BA399:CL399 D400:G400 BE400:CL400 D401:G401 AY401:CL401 D402:G402 BC402:CL402 D403:G403 BC403:CL403 D404:G404 BG404:CL404 D405:G405 AY405:CL405 D406:G406 AY406:CL406 B16:B406 D14:G15 B14:B15 A1:A2 N14:AR14 AW14:CL14 N15:AR15 AW15:CL15" numberStoredAsText="1"/>
+    <ignoredError sqref="AW15:CL15 N15:AR15 AW14:CL14 N14:AR14 A1:A2 B14:B15 D14:G15 B16:B406 AY406:CL406 D406:G406 AY405:CL405 D405:G405 BG404:CL404 D404:G404 BC403:CL403 D403:G403 BC402:CL402 D402:G402 AY401:CL401 D401:G401 BE400:CL400 D400:G400 BA399:CL399 D399:G399 BA398:CL398 D398:G398 BC397:CL397 D397:G397 BA396:CL396 D396:G396 AY395:CL395 D395:G395 BE394:CL394 D394:G394 BE393:CL393 D393:G393 AY392:CL392 D392:G392 AW391:CL391 D391:G391 BA390:CL390 D390:G390 AY389:CL389 D389:G389 BC388:CL388 D388:G388 BC387:CL387 D387:G387 AY386:CL386 D386:G386 AW385:CL385 D385:G385 BC384:CL384 D384:G384 AY383:CL383 D383:G383 AY382:CL382 D382:G382 BA381:CL381 D381:G381 AY380:CL380 D380:G380 BA379:CL379 D379:G379 AW378:CL378 D378:G378 BA377:CL377 D377:G377 AW376:CL376 D376:G376 AU375:CL375 D375:G375 D374:G374 AU373:CL373 D373:G373 BW372:CL372 D372:G372 D371:G371 AY370:CL370 D370:G370 D369:G369 BA368:CL368 D368:G368 BA367:CL367 D367:G367 AU366:CL366 D366:G366 AY365:CL365 D365:G365 BM364:CL364 D364:G364 BI363:CL363 D363:G363 BC362:CL362 D362:G362 AW361:CL361 D361:G361 AY360:CL360 D360:G360 BA359:CL359 D359:G359 BA358:CL358 D358:G358 AY357:CL357 D357:G357 AU356:CL356 D356:G356 AY355:CL355 D355:G355 AY354:CL354 D354:G354 AU353:CL353 D353:G353 AW352:CL352 D352:G352 BC351:CL351 D351:G351 D350:G350 AW349:CL349 D349:G349 BA348:CL348 D348:G348 BA347:CL347 D347:G347 AY346:CL346 D346:G346 AW345:CL345 D345:G345 AW344:CL344 D344:G344 AY343:CL343 D343:G343 AY342:CL342 D342:G342 AY341:CL341 D341:G341 AY340:CL340 D340:G340 BA339:CL339 D339:G339 AU338:CL338 D338:G338 AU337:CL337 D337:G337 AW336:CL336 D336:G336 AU335:CL335 D335:G335 AW334:CL334 D334:G334 D333:G333 AY332:CL332 D332:G332 AW331:CL331 D331:G331 AW330:CL330 D330:G330 AY329:CL329 D329:G329 AY328:CL328 D328:G328 AY327:CL327 D327:G327 D326:G326 BC325:CL325 D325:G325 AU324:CL324 D324:G324 AY323:CL323 D323:G323 BA322:CL322 D322:G322 AY321:CL321 D321:G321 AW320:CL320 D320:G320 BA319:CL319 D319:G319 AW318:CL318 D318:G318 AU317:CL317 D317:G317 D316:G316 AW315:CL315 D315:G315 D314:G314 AU313:CL313 D313:G313 AU312:CL312 D312:G312 AU311:CL311 D311:G311 AU310:CL310 D310:G310 AU309:CL309 D309:G309 AU308:CL308 D308:G308 AU307:CL307 D307:G307 BC306:CL306 D306:G306 D305:G305 AU304:CL304 D304:G304 BM303:CL303 D303:G303 D302:G302 BI301:CL301 D301:G301 D300:G300 BE299:CL299 D299:G299 D298:G298 BS297:CL297 D297:G297 D296:G296 BE295:CL295 D295:G295 D294:G294 BA293:CL293 D293:G293 D292:G292 BQ291:CL291 D291:G291 D290:G290 BE289:CL289 D289:G289 D288:G288 AW287:CL287 D287:G287 BA286:CL286 D286:G286 BG285:CL285 D285:G285 D284:G284 BA283:CL283 D283:G283 D282:G282 BI281:CL281 D281:G281 D280:G280 BE279:CL279 D279:G279 D278:G278 AY277:CL277 D277:G277 D276:G276 BE275:CL275 D275:G275 D274:G274 AW273:CL273 D273:G273 BC272:CL272 D272:G272 BC271:CL271 D271:G271 D270:G270 BA269:CL269 D269:G269 D268:G268 BC267:CL267 D267:G267 D266:G266 BM265:CL265 D265:G265 D264:G264 BK263:CL263 D263:G263 D262:G262 BG261:CL261 D261:G261 D260:G260 AY259:CL259 D259:G259 D258:G258 AY257:CL257 D257:G257 D256:G256 BS255:CL255 D255:G255 D254:G254 BG253:CL253 D253:G253 D252:G252 BQ251:CL251 D251:G251 D250:G250 BQ249:CL249 D249:G249 D248:G248 AY247:CL247 D247:G247 D246:G246 BG245:CL245 D245:G245 D244:G244 BY243:CL243 D243:G243 D242:G242 BG241:CL241 AW241:AX241 D241:G241 D240:G240 BG239:CL239 D239:G239 D238:G238 BG237:CL237 D237:G237 D236:G236 BE235:CL235 D235:G235 D234:G234 BM233:CL233 D233:G233 D232:G232 BE231:CL231 D231:G231 D230:G230 BM229:CL229 D229:G229 D228:G228 AY227:CL227 D227:G227 D226:G226 BA225:CL225 D225:G225 D224:G224 BW223:CL223 D223:G223 D222:G222 BM221:CL221 D221:G221 D220:G220 BG219:CL219 D219:G219 D218:G218 AY217:CL217 D217:G217 D216:G216 BA215:CL215 D215:G215 D214:G214 BE213:CL213 AU213:AV213 D213:G213 D212:G212 BA211:CL211 D211:G211 D210:G210 AU209:CL209 D209:G209 D208:G208 BE207:CL207 D207:G207 D206:G206 BC205:CL205 D205:G205 D204:G204 AY203:CL203 D203:G203 D202:G202 BG201:CL201 D201:G201 D200:G200 BQ199:CL199 D199:G199 D198:G198 BC197:CL197 D197:G197 D196:G196 BQ195:CL195 D195:G195 D192:G194 BM191:CL191 D191:G191 BA190:CL190 D190:G190 D189:G189 BC188:CL188 D188:G188 D187:G187 BG186:CL186 D186:G186 D185:G185 BS184:CL184 D184:G184 D183:G183 BC182:CL182 D182:G182 D181:G181 BA180:CL180 D180:G180 D179:G179 BY178:CL178 D178:G178 D177:G177 BM176:CL176 D176:G176 D175:G175 AY174:CL174 D174:G174 BC173:CL173 D173:G173 D172:G172 AY171:CL171 D171:G171 D170:G170 BE169:CL169 D169:G169 D168:G168 AW167:CL167 D167:G167 D161:G166 AY160:CL160 D160:G160 D159:G159 BW158:CL158 AW158:AX158 D158:G158 BW157:CL157 AW157:AX157 D157:G157 BW156:CL156 AW156:AX156 D156:G156 D153:G155 BE152:CL152 D152:G152 BE151:CL151 D151:G151 BE150:CL150 D150:G150 BE149:CL149 D149:G149 BE148:CL148 D148:G148 D143:G147 BO142:CL142 D142:G142 D141:G141 BA140:CL140 D140:G140 D139:G139 AY138:CL138 D138:G138 D137:G137 BE136:CL136 D136:G136 D135:G135 BC134:CL134 D134:G134 D133:G133 BI132:CL132 D132:G132 D131:G131 BI130:CL130 D130:G130 D129:G129 BE128:CL128 D128:G128 D127:G127 BE126:CL126 D126:G126 D125:G125 AY124:CL124 D124:G124 D123:G123 BN122:CL122 D122:G122 D121:G121 BQ120:CL120 D120:G120 D119:G119 BM118:CL118 D118:G118 D117:G117 AY116:CL116 D116:G116 D115:G115 AY114:CL114 D114:G114 D113:G113 BC112:CL112 D112:G112 D111:G111 BC110:CL110 D110:G110 D109:G109 BC108:CL108 D108:G108 D107:G107 BC106:CL106 D106:G106 D105:G105 BC104:CL104 D104:G104 D103:G103 AW102:CL102 D102:G102 BC101:CL101 D101:G101 D100:G100 AW99:CL99 D99:G99 D98:G98 BG97:CL97 D97:G97 D96:G96 BA95:CL95 D95:G95 D94:G94 AY93:CL93 D93:G93 D92:G92 CI91:CL91 D91:G91 D90:G90 BA89:CL89 D89:G89 D88:G88 AU87:CL87 D87:G87 AU86:CL86 D86:G86 AW85:CL85 D85:G85 AU84:CL84 D84:G84 AU83:CL83 D83:G83 AU82:CL82 D82:G82 AU81:CL81 D81:G81 AU80:CL80 D80:G80 AU79:CL79 D79:G79 AU78:CL78 D78:G78 AU77:CL77 D77:G77 AU76:CL76 D76:G76 BO75:CL75 D75:G75 D74:G74 BA73:CL73 D73:G73 BA72:CL72 D72:G72 D70:G71 BA69:CL69 D69:G69 D67:G68 AW66:CL66 D66:G66 AY65:CL65 D65:G65 BM64:CL64 D64:G64 D63:G63 BC62:CL62 D62:G62 BA61:CL61 D61:G61 BG60:CL60 D60:G60 AY59:CL59 D59:G59 AY58:CL58 D58:G58 AW57:CL57 D57:G57 AW56:CL56 D56:G56 AY55:CL55 D55:G55 BA54:CL54 D54:G54 D53:G53 AY52:CL52 D52:G52 AW51:CL51 D51:G51 AU50:CL50 D50:G50 AW49:CL49 D49:G49 AU48:CL48 D48:G48 AU47:CL47 D47:G47 AU46:CL46 D46:G46 AW45:CL45 D45:G45 AU44:CL44 D44:G44 AW43:CL43 D43:G43 AU42:CL42 D42:G42 AU41:CL41 D41:G41 AU40:CL40 D40:G40 AU39:CL39 D39:G39 AU38:CL38 D38:G38 AU37:CL37 D37:G37 AU36:CL36 D36:G36 AU35:CL35 D35:G35 AU34:CL34 D34:G34 AU33:CL33 D33:G33 AU32:CL32 D32:G32 AU31:CL31 D31:G31 AW30:CL30 D30:G30 AU29:CL29 D29:G29 AU28:CL28 D28:G28 AU27:CL27 D27:G27 BA26:CL26 D26:G26 D25:G25 AY24:CL24 D24:G24 AU23:CL23 D23:G23 AU22:CL22 D22:G22 BE21:CL21 D21:G21 AW20:CL20 D20:G20 AY19:CL19 D19:G19 AW18:CL18 D18:G18 AU17:CL17 D17:G17 AU16:CL16 D16:G16 B3:B12 AU12:CL12 D12:G12 AU11:CL11 D11:G11 AU10:CL10 D10:G10 D7:G9 BI6:CL6 BI5:CL5 BK4:CL4 AY3:CL3 D6:G6 D5:G5 D3:G4 B13 D13:G13 AU13:CL13 L13:AR13 B1:B2 D1:G2 I13:J13 I14:J15 I3:AR4 I5:AR5 I6:AR6 I10:AR10 I11:AR11 I12:AR12 I16:AR16 I17:AR17 I18:AR18 I19:AR19 I20:AR20 I21:AR21 I22:AR22 I23:AR23 I24:AR24 I26:AR26 I27:AR27 I28:AR28 I29:AR29 I30:AR30 I31:AR31 I32:AR32 I33:AR33 I34:AR34 I35:AR35 I36:AR36 I37:AR37 I38:AR38 I39:AR39 I40:AR40 I41:AR41 I42:AR42 I43:AR43 I44:AR44 I45:AR45 I46:AR46 I47:AR47 I48:AR48 I49:AR49 I50:AR50 I51:AR51 I52:AR52 I54:AR54 I55:AR55 I56:AR56 I57:AR57 I58:AR58 I59:AR59 I60:AR60 I61:AR61 I62:AR62 I64:AR64 I65:AR65 I66:AR66 I69:AR69 I72:AR72 I73:AR73 I75:AR75 I76:AR76 I77:AR77 I78:AR78 I79:AR79 I80:AR80 I81:AR81 I82:AR82 I83:AR83 I84:AR84 I85:AR85 I86:AR86 I87:AR87 I89:AR89 I91:AR91 I93:AR93 I95:AR95 I97:AR97 I99:AR99 I101:AR101 I102:AR102 I104:AR104 I106:AR106 I108:AR108 I110:AR110 I112:AR112 I114:AR114 I116:AR116 I118:AR118 I120:AR120 I122:AR122 I124:AR124 I126:AR126 I128:AR128 I130:AR130 I132:AR132 I134:AR134 I136:AR136 I138:AR138 I140:AR140 I142:AR142 I148:AR148 I149:AR149 I150:AR150 I151:AR151 I152:AR152 I156:AR156 I157:AR157 I158:AR158 I160:AR160 I167:AR167 I169:AR169 I171:AR171 I173:AR173 I174:AR174 I176:AR176 I178:AR178 I180:AR180 I182:AR182 I184:AR184 I186:AR186 I188:AR188 I190:AR190 I191:AR191 I195:AR195 I197:AR197 I199:AR199 I201:AR201 I203:AR203 I205:AR205 I207:AR207 I209:AR209 I211:AR211 I213:AR213 I215:AR215 I217:AR217 I219:AR219 I221:AR221 I223:AR223 I225:AR225 I227:AR227 I229:AR229 I231:AR231 I233:AR233 I235:AR235 I237:AR237 I239:AR239 I241:AR241 I243:AR243 I245:AR245 I247:AR247 I249:AR249 I251:AR251 I253:AR253 I255:AR255 I257:AR257 I259:AR259 I261:AR261 I263:AR263 I265:AR265 I267:AR267 I269:AR269 I271:AR271 I272:AR272 I273:AR273 I275:AR275 I277:AR277 I279:AR279 I281:AR281 I283:AR283 I285:AR285 I286:AR286 I287:AR287 I289:AR289 I291:AR291 I293:AR293 I295:AR295 I297:AR297 I299:AR299 I301:AR301 I303:AR303 I304:AR304 I306:AR306 I307:AR307 I308:AR308 I309:AR309 I310:AR310 I311:AR311 I312:AR312 I313:AR313 I315:AR315 I317:AR317 I318:AR318 I319:AR319 I320:AR320 I321:AR321 I322:AR322 I323:AR323 I324:AR324 I325:AR325 I327:AR327 I328:AR328 I329:AR329 I330:AR330 I331:AR331 I332:AR332 I334:AR334 I335:AR335 I336:AR336 I337:AR337 I338:AR338 I339:AR339 I340:AR340 I341:AR341 I342:AR342 I343:AR343 I344:AR344 I345:AR345 I346:AR346 I347:AR347 I348:AR348 I349:AR349 I351:AR351 I352:AR352 I353:AR353 I354:AR354 I355:AR355 I356:AR356 I357:AR357 I358:AR358 I359:AR359 I360:AR360 I361:AR361 I362:AR362 I363:AR363 I364:AR364 I365:AR365 I366:AR366 I367:AR367 I368:AR368 I370:AR370 I372:AR372 I373:AR373 I375:AR375 I376:AR376 I377:AR377 I378:AR378 I379:AR379 I380:AR380 I381:AR381 I382:AR382 I383:AR383 I384:AR384 I385:AR385 I386:AR386 I387:AR387 I388:AR388 I389:AR389 I390:AR390 I391:AR391 I392:AR392 I393:AR393 I394:AR394 I395:AR395 I396:AR396 I397:AR397 I398:AR398 I399:AR399 I400:AR400 I401:AR401 I402:AR402 I403:AR403 I404:AR404 I405:AR405 I406:AR406 I1:CL2 I7:CL9 I25:CL25 I53:CL53 I63:CL63 I67:CL68 I70:CL71 I74:CL74 I88:CL88 I90:CL90 I92:CL92 I94:CL94 I96:CL96 I98:CL98 I100:CL100 I103:CL103 I105:CL105 I107:CL107 I109:CL109 I111:CL111 I113:CL113 I115:CL115 I117:CL117 I119:CL119 I121:CL121 I123:CL123 I125:CL125 I127:CL127 I129:CL129 I131:CL131 I133:CL133 I135:CL135 I137:CL137 I139:CL139 I141:CL141 I143:CL147 I153:CL155 I159:CL159 I161:CL166 I168:CL168 I170:CL170 I172:CL172 I175:CL175 I177:CL177 I179:CL179 I181:CL181 I183:CL183 I185:CL185 I187:CL187 I189:CL189 I192:CL194 I196:CL196 I198:CL198 I200:CL200 I202:CL202 I204:CL204 I206:CL206 I208:CL208 I210:CL210 I212:CL212 I214:CL214 I216:CL216 I218:CL218 I220:CL220 I222:CL222 I224:CL224 I226:CL226 I228:CL228 I230:CL230 I232:CL232 I234:CL234 I236:CL236 I238:CL238 I240:CL240 I242:CL242 I244:CL244 I246:CL246 I248:CL248 I250:CL250 I252:CL252 I254:CL254 I256:CL256 I258:CL258 I260:CL260 I262:CL262 I264:CL264 I266:CL266 I268:CL268 I270:CL270 I274:CL274 I276:CL276 I278:CL278 I280:CL280 I282:CL282 I284:CL284 I288:CL288 I290:CL290 I292:CL292 I294:CL294 I296:CL296 I298:CL298 I300:CL300 I302:CL302 I305:CL305 I314:CL314 I316:CL316 I326:CL326 I333:CL333 I350:CL350 I369:CL369 I371:CL371 I374:CL374" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -33252,7 +33254,7 @@
   <sheetPr/>
   <dimension ref="A1:CP4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L3" sqref="L3:L4"/>
     </sheetView>
   </sheetViews>
@@ -34401,7 +34403,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="M1:CP2 M3:CP4 A3:K4 H1:K2 A1:F2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:F2 H1:K2 A3:K4 M3:CP4 M1:CP2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/code/excels/dota/dota_items.xlsx
+++ b/code/excels/dota/dota_items.xlsx
@@ -11414,8 +11414,8 @@
   <sheetPr/>
   <dimension ref="A1:CL406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN124" workbookViewId="0">
-      <selection activeCell="AW142" sqref="AW142"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AS2" sqref="AS2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -33244,7 +33244,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="AW15:CL15 N15:AR15 AW14:CL14 N14:AR14 A1:A2 B14:B15 D14:G15 B16:B406 AY406:CL406 D406:G406 AY405:CL405 D405:G405 BG404:CL404 D404:G404 BC403:CL403 D403:G403 BC402:CL402 D402:G402 AY401:CL401 D401:G401 BE400:CL400 D400:G400 BA399:CL399 D399:G399 BA398:CL398 D398:G398 BC397:CL397 D397:G397 BA396:CL396 D396:G396 AY395:CL395 D395:G395 BE394:CL394 D394:G394 BE393:CL393 D393:G393 AY392:CL392 D392:G392 AW391:CL391 D391:G391 BA390:CL390 D390:G390 AY389:CL389 D389:G389 BC388:CL388 D388:G388 BC387:CL387 D387:G387 AY386:CL386 D386:G386 AW385:CL385 D385:G385 BC384:CL384 D384:G384 AY383:CL383 D383:G383 AY382:CL382 D382:G382 BA381:CL381 D381:G381 AY380:CL380 D380:G380 BA379:CL379 D379:G379 AW378:CL378 D378:G378 BA377:CL377 D377:G377 AW376:CL376 D376:G376 AU375:CL375 D375:G375 D374:G374 AU373:CL373 D373:G373 BW372:CL372 D372:G372 D371:G371 AY370:CL370 D370:G370 D369:G369 BA368:CL368 D368:G368 BA367:CL367 D367:G367 AU366:CL366 D366:G366 AY365:CL365 D365:G365 BM364:CL364 D364:G364 BI363:CL363 D363:G363 BC362:CL362 D362:G362 AW361:CL361 D361:G361 AY360:CL360 D360:G360 BA359:CL359 D359:G359 BA358:CL358 D358:G358 AY357:CL357 D357:G357 AU356:CL356 D356:G356 AY355:CL355 D355:G355 AY354:CL354 D354:G354 AU353:CL353 D353:G353 AW352:CL352 D352:G352 BC351:CL351 D351:G351 D350:G350 AW349:CL349 D349:G349 BA348:CL348 D348:G348 BA347:CL347 D347:G347 AY346:CL346 D346:G346 AW345:CL345 D345:G345 AW344:CL344 D344:G344 AY343:CL343 D343:G343 AY342:CL342 D342:G342 AY341:CL341 D341:G341 AY340:CL340 D340:G340 BA339:CL339 D339:G339 AU338:CL338 D338:G338 AU337:CL337 D337:G337 AW336:CL336 D336:G336 AU335:CL335 D335:G335 AW334:CL334 D334:G334 D333:G333 AY332:CL332 D332:G332 AW331:CL331 D331:G331 AW330:CL330 D330:G330 AY329:CL329 D329:G329 AY328:CL328 D328:G328 AY327:CL327 D327:G327 D326:G326 BC325:CL325 D325:G325 AU324:CL324 D324:G324 AY323:CL323 D323:G323 BA322:CL322 D322:G322 AY321:CL321 D321:G321 AW320:CL320 D320:G320 BA319:CL319 D319:G319 AW318:CL318 D318:G318 AU317:CL317 D317:G317 D316:G316 AW315:CL315 D315:G315 D314:G314 AU313:CL313 D313:G313 AU312:CL312 D312:G312 AU311:CL311 D311:G311 AU310:CL310 D310:G310 AU309:CL309 D309:G309 AU308:CL308 D308:G308 AU307:CL307 D307:G307 BC306:CL306 D306:G306 D305:G305 AU304:CL304 D304:G304 BM303:CL303 D303:G303 D302:G302 BI301:CL301 D301:G301 D300:G300 BE299:CL299 D299:G299 D298:G298 BS297:CL297 D297:G297 D296:G296 BE295:CL295 D295:G295 D294:G294 BA293:CL293 D293:G293 D292:G292 BQ291:CL291 D291:G291 D290:G290 BE289:CL289 D289:G289 D288:G288 AW287:CL287 D287:G287 BA286:CL286 D286:G286 BG285:CL285 D285:G285 D284:G284 BA283:CL283 D283:G283 D282:G282 BI281:CL281 D281:G281 D280:G280 BE279:CL279 D279:G279 D278:G278 AY277:CL277 D277:G277 D276:G276 BE275:CL275 D275:G275 D274:G274 AW273:CL273 D273:G273 BC272:CL272 D272:G272 BC271:CL271 D271:G271 D270:G270 BA269:CL269 D269:G269 D268:G268 BC267:CL267 D267:G267 D266:G266 BM265:CL265 D265:G265 D264:G264 BK263:CL263 D263:G263 D262:G262 BG261:CL261 D261:G261 D260:G260 AY259:CL259 D259:G259 D258:G258 AY257:CL257 D257:G257 D256:G256 BS255:CL255 D255:G255 D254:G254 BG253:CL253 D253:G253 D252:G252 BQ251:CL251 D251:G251 D250:G250 BQ249:CL249 D249:G249 D248:G248 AY247:CL247 D247:G247 D246:G246 BG245:CL245 D245:G245 D244:G244 BY243:CL243 D243:G243 D242:G242 BG241:CL241 AW241:AX241 D241:G241 D240:G240 BG239:CL239 D239:G239 D238:G238 BG237:CL237 D237:G237 D236:G236 BE235:CL235 D235:G235 D234:G234 BM233:CL233 D233:G233 D232:G232 BE231:CL231 D231:G231 D230:G230 BM229:CL229 D229:G229 D228:G228 AY227:CL227 D227:G227 D226:G226 BA225:CL225 D225:G225 D224:G224 BW223:CL223 D223:G223 D222:G222 BM221:CL221 D221:G221 D220:G220 BG219:CL219 D219:G219 D218:G218 AY217:CL217 D217:G217 D216:G216 BA215:CL215 D215:G215 D214:G214 BE213:CL213 AU213:AV213 D213:G213 D212:G212 BA211:CL211 D211:G211 D210:G210 AU209:CL209 D209:G209 D208:G208 BE207:CL207 D207:G207 D206:G206 BC205:CL205 D205:G205 D204:G204 AY203:CL203 D203:G203 D202:G202 BG201:CL201 D201:G201 D200:G200 BQ199:CL199 D199:G199 D198:G198 BC197:CL197 D197:G197 D196:G196 BQ195:CL195 D195:G195 D192:G194 BM191:CL191 D191:G191 BA190:CL190 D190:G190 D189:G189 BC188:CL188 D188:G188 D187:G187 BG186:CL186 D186:G186 D185:G185 BS184:CL184 D184:G184 D183:G183 BC182:CL182 D182:G182 D181:G181 BA180:CL180 D180:G180 D179:G179 BY178:CL178 D178:G178 D177:G177 BM176:CL176 D176:G176 D175:G175 AY174:CL174 D174:G174 BC173:CL173 D173:G173 D172:G172 AY171:CL171 D171:G171 D170:G170 BE169:CL169 D169:G169 D168:G168 AW167:CL167 D167:G167 D161:G166 AY160:CL160 D160:G160 D159:G159 BW158:CL158 AW158:AX158 D158:G158 BW157:CL157 AW157:AX157 D157:G157 BW156:CL156 AW156:AX156 D156:G156 D153:G155 BE152:CL152 D152:G152 BE151:CL151 D151:G151 BE150:CL150 D150:G150 BE149:CL149 D149:G149 BE148:CL148 D148:G148 D143:G147 BO142:CL142 D142:G142 D141:G141 BA140:CL140 D140:G140 D139:G139 AY138:CL138 D138:G138 D137:G137 BE136:CL136 D136:G136 D135:G135 BC134:CL134 D134:G134 D133:G133 BI132:CL132 D132:G132 D131:G131 BI130:CL130 D130:G130 D129:G129 BE128:CL128 D128:G128 D127:G127 BE126:CL126 D126:G126 D125:G125 AY124:CL124 D124:G124 D123:G123 BN122:CL122 D122:G122 D121:G121 BQ120:CL120 D120:G120 D119:G119 BM118:CL118 D118:G118 D117:G117 AY116:CL116 D116:G116 D115:G115 AY114:CL114 D114:G114 D113:G113 BC112:CL112 D112:G112 D111:G111 BC110:CL110 D110:G110 D109:G109 BC108:CL108 D108:G108 D107:G107 BC106:CL106 D106:G106 D105:G105 BC104:CL104 D104:G104 D103:G103 AW102:CL102 D102:G102 BC101:CL101 D101:G101 D100:G100 AW99:CL99 D99:G99 D98:G98 BG97:CL97 D97:G97 D96:G96 BA95:CL95 D95:G95 D94:G94 AY93:CL93 D93:G93 D92:G92 CI91:CL91 D91:G91 D90:G90 BA89:CL89 D89:G89 D88:G88 AU87:CL87 D87:G87 AU86:CL86 D86:G86 AW85:CL85 D85:G85 AU84:CL84 D84:G84 AU83:CL83 D83:G83 AU82:CL82 D82:G82 AU81:CL81 D81:G81 AU80:CL80 D80:G80 AU79:CL79 D79:G79 AU78:CL78 D78:G78 AU77:CL77 D77:G77 AU76:CL76 D76:G76 BO75:CL75 D75:G75 D74:G74 BA73:CL73 D73:G73 BA72:CL72 D72:G72 D70:G71 BA69:CL69 D69:G69 D67:G68 AW66:CL66 D66:G66 AY65:CL65 D65:G65 BM64:CL64 D64:G64 D63:G63 BC62:CL62 D62:G62 BA61:CL61 D61:G61 BG60:CL60 D60:G60 AY59:CL59 D59:G59 AY58:CL58 D58:G58 AW57:CL57 D57:G57 AW56:CL56 D56:G56 AY55:CL55 D55:G55 BA54:CL54 D54:G54 D53:G53 AY52:CL52 D52:G52 AW51:CL51 D51:G51 AU50:CL50 D50:G50 AW49:CL49 D49:G49 AU48:CL48 D48:G48 AU47:CL47 D47:G47 AU46:CL46 D46:G46 AW45:CL45 D45:G45 AU44:CL44 D44:G44 AW43:CL43 D43:G43 AU42:CL42 D42:G42 AU41:CL41 D41:G41 AU40:CL40 D40:G40 AU39:CL39 D39:G39 AU38:CL38 D38:G38 AU37:CL37 D37:G37 AU36:CL36 D36:G36 AU35:CL35 D35:G35 AU34:CL34 D34:G34 AU33:CL33 D33:G33 AU32:CL32 D32:G32 AU31:CL31 D31:G31 AW30:CL30 D30:G30 AU29:CL29 D29:G29 AU28:CL28 D28:G28 AU27:CL27 D27:G27 BA26:CL26 D26:G26 D25:G25 AY24:CL24 D24:G24 AU23:CL23 D23:G23 AU22:CL22 D22:G22 BE21:CL21 D21:G21 AW20:CL20 D20:G20 AY19:CL19 D19:G19 AW18:CL18 D18:G18 AU17:CL17 D17:G17 AU16:CL16 D16:G16 B3:B12 AU12:CL12 D12:G12 AU11:CL11 D11:G11 AU10:CL10 D10:G10 D7:G9 BI6:CL6 BI5:CL5 BK4:CL4 AY3:CL3 D6:G6 D5:G5 D3:G4 B13 D13:G13 AU13:CL13 L13:AR13 B1:B2 D1:G2 I13:J13 I14:J15 I3:AR4 I5:AR5 I6:AR6 I10:AR10 I11:AR11 I12:AR12 I16:AR16 I17:AR17 I18:AR18 I19:AR19 I20:AR20 I21:AR21 I22:AR22 I23:AR23 I24:AR24 I26:AR26 I27:AR27 I28:AR28 I29:AR29 I30:AR30 I31:AR31 I32:AR32 I33:AR33 I34:AR34 I35:AR35 I36:AR36 I37:AR37 I38:AR38 I39:AR39 I40:AR40 I41:AR41 I42:AR42 I43:AR43 I44:AR44 I45:AR45 I46:AR46 I47:AR47 I48:AR48 I49:AR49 I50:AR50 I51:AR51 I52:AR52 I54:AR54 I55:AR55 I56:AR56 I57:AR57 I58:AR58 I59:AR59 I60:AR60 I61:AR61 I62:AR62 I64:AR64 I65:AR65 I66:AR66 I69:AR69 I72:AR72 I73:AR73 I75:AR75 I76:AR76 I77:AR77 I78:AR78 I79:AR79 I80:AR80 I81:AR81 I82:AR82 I83:AR83 I84:AR84 I85:AR85 I86:AR86 I87:AR87 I89:AR89 I91:AR91 I93:AR93 I95:AR95 I97:AR97 I99:AR99 I101:AR101 I102:AR102 I104:AR104 I106:AR106 I108:AR108 I110:AR110 I112:AR112 I114:AR114 I116:AR116 I118:AR118 I120:AR120 I122:AR122 I124:AR124 I126:AR126 I128:AR128 I130:AR130 I132:AR132 I134:AR134 I136:AR136 I138:AR138 I140:AR140 I142:AR142 I148:AR148 I149:AR149 I150:AR150 I151:AR151 I152:AR152 I156:AR156 I157:AR157 I158:AR158 I160:AR160 I167:AR167 I169:AR169 I171:AR171 I173:AR173 I174:AR174 I176:AR176 I178:AR178 I180:AR180 I182:AR182 I184:AR184 I186:AR186 I188:AR188 I190:AR190 I191:AR191 I195:AR195 I197:AR197 I199:AR199 I201:AR201 I203:AR203 I205:AR205 I207:AR207 I209:AR209 I211:AR211 I213:AR213 I215:AR215 I217:AR217 I219:AR219 I221:AR221 I223:AR223 I225:AR225 I227:AR227 I229:AR229 I231:AR231 I233:AR233 I235:AR235 I237:AR237 I239:AR239 I241:AR241 I243:AR243 I245:AR245 I247:AR247 I249:AR249 I251:AR251 I253:AR253 I255:AR255 I257:AR257 I259:AR259 I261:AR261 I263:AR263 I265:AR265 I267:AR267 I269:AR269 I271:AR271 I272:AR272 I273:AR273 I275:AR275 I277:AR277 I279:AR279 I281:AR281 I283:AR283 I285:AR285 I286:AR286 I287:AR287 I289:AR289 I291:AR291 I293:AR293 I295:AR295 I297:AR297 I299:AR299 I301:AR301 I303:AR303 I304:AR304 I306:AR306 I307:AR307 I308:AR308 I309:AR309 I310:AR310 I311:AR311 I312:AR312 I313:AR313 I315:AR315 I317:AR317 I318:AR318 I319:AR319 I320:AR320 I321:AR321 I322:AR322 I323:AR323 I324:AR324 I325:AR325 I327:AR327 I328:AR328 I329:AR329 I330:AR330 I331:AR331 I332:AR332 I334:AR334 I335:AR335 I336:AR336 I337:AR337 I338:AR338 I339:AR339 I340:AR340 I341:AR341 I342:AR342 I343:AR343 I344:AR344 I345:AR345 I346:AR346 I347:AR347 I348:AR348 I349:AR349 I351:AR351 I352:AR352 I353:AR353 I354:AR354 I355:AR355 I356:AR356 I357:AR357 I358:AR358 I359:AR359 I360:AR360 I361:AR361 I362:AR362 I363:AR363 I364:AR364 I365:AR365 I366:AR366 I367:AR367 I368:AR368 I370:AR370 I372:AR372 I373:AR373 I375:AR375 I376:AR376 I377:AR377 I378:AR378 I379:AR379 I380:AR380 I381:AR381 I382:AR382 I383:AR383 I384:AR384 I385:AR385 I386:AR386 I387:AR387 I388:AR388 I389:AR389 I390:AR390 I391:AR391 I392:AR392 I393:AR393 I394:AR394 I395:AR395 I396:AR396 I397:AR397 I398:AR398 I399:AR399 I400:AR400 I401:AR401 I402:AR402 I403:AR403 I404:AR404 I405:AR405 I406:AR406 I1:CL2 I7:CL9 I25:CL25 I53:CL53 I63:CL63 I67:CL68 I70:CL71 I74:CL74 I88:CL88 I90:CL90 I92:CL92 I94:CL94 I96:CL96 I98:CL98 I100:CL100 I103:CL103 I105:CL105 I107:CL107 I109:CL109 I111:CL111 I113:CL113 I115:CL115 I117:CL117 I119:CL119 I121:CL121 I123:CL123 I125:CL125 I127:CL127 I129:CL129 I131:CL131 I133:CL133 I135:CL135 I137:CL137 I139:CL139 I141:CL141 I143:CL147 I153:CL155 I159:CL159 I161:CL166 I168:CL168 I170:CL170 I172:CL172 I175:CL175 I177:CL177 I179:CL179 I181:CL181 I183:CL183 I185:CL185 I187:CL187 I189:CL189 I192:CL194 I196:CL196 I198:CL198 I200:CL200 I202:CL202 I204:CL204 I206:CL206 I208:CL208 I210:CL210 I212:CL212 I214:CL214 I216:CL216 I218:CL218 I220:CL220 I222:CL222 I224:CL224 I226:CL226 I228:CL228 I230:CL230 I232:CL232 I234:CL234 I236:CL236 I238:CL238 I240:CL240 I242:CL242 I244:CL244 I246:CL246 I248:CL248 I250:CL250 I252:CL252 I254:CL254 I256:CL256 I258:CL258 I260:CL260 I262:CL262 I264:CL264 I266:CL266 I268:CL268 I270:CL270 I274:CL274 I276:CL276 I278:CL278 I280:CL280 I282:CL282 I284:CL284 I288:CL288 I290:CL290 I292:CL292 I294:CL294 I296:CL296 I298:CL298 I300:CL300 I302:CL302 I305:CL305 I314:CL314 I316:CL316 I326:CL326 I333:CL333 I350:CL350 I369:CL369 I371:CL371 I374:CL374" numberStoredAsText="1"/>
+    <ignoredError sqref="I374:CL374 I371:CL371 I369:CL369 I350:CL350 I333:CL333 I326:CL326 I316:CL316 I314:CL314 I305:CL305 I302:CL302 I300:CL300 I298:CL298 I296:CL296 I294:CL294 I292:CL292 I290:CL290 I288:CL288 I284:CL284 I282:CL282 I280:CL280 I278:CL278 I276:CL276 I274:CL274 I270:CL270 I268:CL268 I266:CL266 I264:CL264 I262:CL262 I260:CL260 I258:CL258 I256:CL256 I254:CL254 I252:CL252 I250:CL250 I248:CL248 I246:CL246 I244:CL244 I242:CL242 I240:CL240 I238:CL238 I236:CL236 I234:CL234 I232:CL232 I230:CL230 I228:CL228 I226:CL226 I224:CL224 I222:CL222 I220:CL220 I218:CL218 I216:CL216 I214:CL214 I212:CL212 I210:CL210 I208:CL208 I206:CL206 I204:CL204 I202:CL202 I200:CL200 I198:CL198 I196:CL196 I192:CL194 I189:CL189 I187:CL187 I185:CL185 I183:CL183 I181:CL181 I179:CL179 I177:CL177 I175:CL175 I172:CL172 I170:CL170 I168:CL168 I161:CL166 I159:CL159 I153:CL155 I143:CL147 I141:CL141 I139:CL139 I137:CL137 I135:CL135 I133:CL133 I131:CL131 I129:CL129 I127:CL127 I125:CL125 I123:CL123 I121:CL121 I119:CL119 I117:CL117 I115:CL115 I113:CL113 I111:CL111 I109:CL109 I107:CL107 I105:CL105 I103:CL103 I100:CL100 I98:CL98 I96:CL96 I94:CL94 I92:CL92 I90:CL90 I88:CL88 I74:CL74 I70:CL71 I67:CL68 I63:CL63 I53:CL53 I25:CL25 I7:CL9 I1:CL2 I406:AR406 I405:AR405 I404:AR404 I403:AR403 I402:AR402 I401:AR401 I400:AR400 I399:AR399 I398:AR398 I397:AR397 I396:AR396 I395:AR395 I394:AR394 I393:AR393 I392:AR392 I391:AR391 I390:AR390 I389:AR389 I388:AR388 I387:AR387 I386:AR386 I385:AR385 I384:AR384 I383:AR383 I382:AR382 I381:AR381 I380:AR380 I379:AR379 I378:AR378 I377:AR377 I376:AR376 I375:AR375 I373:AR373 I372:AR372 I370:AR370 I368:AR368 I367:AR367 I366:AR366 I365:AR365 I364:AR364 I363:AR363 I362:AR362 I361:AR361 I360:AR360 I359:AR359 I358:AR358 I357:AR357 I356:AR356 I355:AR355 I354:AR354 I353:AR353 I352:AR352 I351:AR351 I349:AR349 I348:AR348 I347:AR347 I346:AR346 I345:AR345 I344:AR344 I343:AR343 I342:AR342 I341:AR341 I340:AR340 I339:AR339 I338:AR338 I337:AR337 I336:AR336 I335:AR335 I334:AR334 I332:AR332 I331:AR331 I330:AR330 I329:AR329 I328:AR328 I327:AR327 I325:AR325 I324:AR324 I323:AR323 I322:AR322 I321:AR321 I320:AR320 I319:AR319 I318:AR318 I317:AR317 I315:AR315 I313:AR313 I312:AR312 I311:AR311 I310:AR310 I309:AR309 I308:AR308 I307:AR307 I306:AR306 I304:AR304 I303:AR303 I301:AR301 I299:AR299 I297:AR297 I295:AR295 I293:AR293 I291:AR291 I289:AR289 I287:AR287 I286:AR286 I285:AR285 I283:AR283 I281:AR281 I279:AR279 I277:AR277 I275:AR275 I273:AR273 I272:AR272 I271:AR271 I269:AR269 I267:AR267 I265:AR265 I263:AR263 I261:AR261 I259:AR259 I257:AR257 I255:AR255 I253:AR253 I251:AR251 I249:AR249 I247:AR247 I245:AR245 I243:AR243 I241:AR241 I239:AR239 I237:AR237 I235:AR235 I233:AR233 I231:AR231 I229:AR229 I227:AR227 I225:AR225 I223:AR223 I221:AR221 I219:AR219 I217:AR217 I215:AR215 I213:AR213 I211:AR211 I209:AR209 I207:AR207 I205:AR205 I203:AR203 I201:AR201 I199:AR199 I197:AR197 I195:AR195 I191:AR191 I190:AR190 I188:AR188 I186:AR186 I184:AR184 I182:AR182 I180:AR180 I178:AR178 I176:AR176 I174:AR174 I173:AR173 I171:AR171 I169:AR169 I167:AR167 I160:AR160 I158:AR158 I157:AR157 I156:AR156 I152:AR152 I151:AR151 I150:AR150 I149:AR149 I148:AR148 I142:AR142 I140:AR140 I138:AR138 I136:AR136 I134:AR134 I132:AR132 I130:AR130 I128:AR128 I126:AR126 I124:AR124 I122:AR122 I120:AR120 I118:AR118 I116:AR116 I114:AR114 I112:AR112 I110:AR110 I108:AR108 I106:AR106 I104:AR104 I102:AR102 I101:AR101 I99:AR99 I97:AR97 I95:AR95 I93:AR93 I91:AR91 I89:AR89 I87:AR87 I86:AR86 I85:AR85 I84:AR84 I83:AR83 I82:AR82 I81:AR81 I80:AR80 I79:AR79 I78:AR78 I77:AR77 I76:AR76 I75:AR75 I73:AR73 I72:AR72 I69:AR69 I66:AR66 I65:AR65 I64:AR64 I62:AR62 I61:AR61 I60:AR60 I59:AR59 I58:AR58 I57:AR57 I56:AR56 I55:AR55 I54:AR54 I52:AR52 I51:AR51 I50:AR50 I49:AR49 I48:AR48 I47:AR47 I46:AR46 I45:AR45 I44:AR44 I43:AR43 I42:AR42 I41:AR41 I40:AR40 I39:AR39 I38:AR38 I37:AR37 I36:AR36 I35:AR35 I34:AR34 I33:AR33 I32:AR32 I31:AR31 I30:AR30 I29:AR29 I28:AR28 I27:AR27 I26:AR26 I24:AR24 I23:AR23 I22:AR22 I21:AR21 I20:AR20 I19:AR19 I18:AR18 I17:AR17 I16:AR16 I12:AR12 I11:AR11 I10:AR10 I6:AR6 I5:AR5 I3:AR4 I14:J15 I13:J13 D1:G2 B1:B2 L13:AR13 AU13:CL13 D13:G13 B13 D3:G4 D5:G5 D6:G6 AY3:CL3 BK4:CL4 BI5:CL5 BI6:CL6 D7:G9 D10:G10 AU10:CL10 D11:G11 AU11:CL11 D12:G12 AU12:CL12 B3:B12 D16:G16 AU16:CL16 D17:G17 AU17:CL17 D18:G18 AW18:CL18 D19:G19 AY19:CL19 D20:G20 AW20:CL20 D21:G21 BE21:CL21 D22:G22 AU22:CL22 D23:G23 AU23:CL23 D24:G24 AY24:CL24 D25:G25 D26:G26 BA26:CL26 D27:G27 AU27:CL27 D28:G28 AU28:CL28 D29:G29 AU29:CL29 D30:G30 AW30:CL30 D31:G31 AU31:CL31 D32:G32 AU32:CL32 D33:G33 AU33:CL33 D34:G34 AU34:CL34 D35:G35 AU35:CL35 D36:G36 AU36:CL36 D37:G37 AU37:CL37 D38:G38 AU38:CL38 D39:G39 AU39:CL39 D40:G40 AU40:CL40 D41:G41 AU41:CL41 D42:G42 AU42:CL42 D43:G43 AW43:CL43 D44:G44 AU44:CL44 D45:G45 AW45:CL45 D46:G46 AU46:CL46 D47:G47 AU47:CL47 D48:G48 AU48:CL48 D49:G49 AW49:CL49 D50:G50 AU50:CL50 D51:G51 AW51:CL51 D52:G52 AY52:CL52 D53:G53 D54:G54 BA54:CL54 D55:G55 AY55:CL55 D56:G56 AW56:CL56 D57:G57 AW57:CL57 D58:G58 AY58:CL58 D59:G59 AY59:CL59 D60:G60 BG60:CL60 D61:G61 BA61:CL61 D62:G62 BC62:CL62 D63:G63 D64:G64 BM64:CL64 D65:G65 AY65:CL65 D66:G66 AW66:CL66 D67:G68 D69:G69 BA69:CL69 D70:G71 D72:G72 BA72:CL72 D73:G73 BA73:CL73 D74:G74 D75:G75 BO75:CL75 D76:G76 AU76:CL76 D77:G77 AU77:CL77 D78:G78 AU78:CL78 D79:G79 AU79:CL79 D80:G80 AU80:CL80 D81:G81 AU81:CL81 D82:G82 AU82:CL82 D83:G83 AU83:CL83 D84:G84 AU84:CL84 D85:G85 AW85:CL85 D86:G86 AU86:CL86 D87:G87 AU87:CL87 D88:G88 D89:G89 BA89:CL89 D90:G90 D91:G91 CI91:CL91 D92:G92 D93:G93 AY93:CL93 D94:G94 D95:G95 BA95:CL95 D96:G96 D97:G97 BG97:CL97 D98:G98 D99:G99 AW99:CL99 D100:G100 D101:G101 BC101:CL101 D102:G102 AW102:CL102 D103:G103 D104:G104 BC104:CL104 D105:G105 D106:G106 BC106:CL106 D107:G107 D108:G108 BC108:CL108 D109:G109 D110:G110 BC110:CL110 D111:G111 D112:G112 BC112:CL112 D113:G113 D114:G114 AY114:CL114 D115:G115 D116:G116 AY116:CL116 D117:G117 D118:G118 BM118:CL118 D119:G119 D120:G120 BQ120:CL120 D121:G121 D122:G122 BN122:CL122 D123:G123 D124:G124 AY124:CL124 D125:G125 D126:G126 BE126:CL126 D127:G127 D128:G128 BE128:CL128 D129:G129 D130:G130 BI130:CL130 D131:G131 D132:G132 BI132:CL132 D133:G133 D134:G134 BC134:CL134 D135:G135 D136:G136 BE136:CL136 D137:G137 D138:G138 AY138:CL138 D139:G139 D140:G140 BA140:CL140 D141:G141 D142:G142 BO142:CL142 D143:G147 D148:G148 BE148:CL148 D149:G149 BE149:CL149 D150:G150 BE150:CL150 D151:G151 BE151:CL151 D152:G152 BE152:CL152 D153:G155 D156:G156 AW156:AX156 BW156:CL156 D157:G157 AW157:AX157 BW157:CL157 D158:G158 AW158:AX158 BW158:CL158 D159:G159 D160:G160 AY160:CL160 D161:G166 D167:G167 AW167:CL167 D168:G168 D169:G169 BE169:CL169 D170:G170 D171:G171 AY171:CL171 D172:G172 D173:G173 BC173:CL173 D174:G174 AY174:CL174 D175:G175 D176:G176 BM176:CL176 D177:G177 D178:G178 BY178:CL178 D179:G179 D180:G180 BA180:CL180 D181:G181 D182:G182 BC182:CL182 D183:G183 D184:G184 BS184:CL184 D185:G185 D186:G186 BG186:CL186 D187:G187 D188:G188 BC188:CL188 D189:G189 D190:G190 BA190:CL190 D191:G191 BM191:CL191 D192:G194 D195:G195 BQ195:CL195 D196:G196 D197:G197 BC197:CL197 D198:G198 D199:G199 BQ199:CL199 D200:G200 D201:G201 BG201:CL201 D202:G202 D203:G203 AY203:CL203 D204:G204 D205:G205 BC205:CL205 D206:G206 D207:G207 BE207:CL207 D208:G208 D209:G209 AU209:CL209 D210:G210 D211:G211 BA211:CL211 D212:G212 D213:G213 AU213:AV213 BE213:CL213 D214:G214 D215:G215 BA215:CL215 D216:G216 D217:G217 AY217:CL217 D218:G218 D219:G219 BG219:CL219 D220:G220 D221:G221 BM221:CL221 D222:G222 D223:G223 BW223:CL223 D224:G224 D225:G225 BA225:CL225 D226:G226 D227:G227 AY227:CL227 D228:G228 D229:G229 BM229:CL229 D230:G230 D231:G231 BE231:CL231 D232:G232 D233:G233 BM233:CL233 D234:G234 D235:G235 BE235:CL235 D236:G236 D237:G237 BG237:CL237 D238:G238 D239:G239 BG239:CL239 D240:G240 D241:G241 AW241:AX241 BG241:CL241 D242:G242 D243:G243 BY243:CL243 D244:G244 D245:G245 BG245:CL245 D246:G246 D247:G247 AY247:CL247 D248:G248 D249:G249 BQ249:CL249 D250:G250 D251:G251 BQ251:CL251 D252:G252 D253:G253 BG253:CL253 D254:G254 D255:G255 BS255:CL255 D256:G256 D257:G257 AY257:CL257 D258:G258 D259:G259 AY259:CL259 D260:G260 D261:G261 BG261:CL261 D262:G262 D263:G263 BK263:CL263 D264:G264 D265:G265 BM265:CL265 D266:G266 D267:G267 BC267:CL267 D268:G268 D269:G269 BA269:CL269 D270:G270 D271:G271 BC271:CL271 D272:G272 BC272:CL272 D273:G273 AW273:CL273 D274:G274 D275:G275 BE275:CL275 D276:G276 D277:G277 AY277:CL277 D278:G278 D279:G279 BE279:CL279 D280:G280 D281:G281 BI281:CL281 D282:G282 D283:G283 BA283:CL283 D284:G284 D285:G285 BG285:CL285 D286:G286 BA286:CL286 D287:G287 AW287:CL287 D288:G288 D289:G289 BE289:CL289 D290:G290 D291:G291 BQ291:CL291 D292:G292 D293:G293 BA293:CL293 D294:G294 D295:G295 BE295:CL295 D296:G296 D297:G297 BS297:CL297 D298:G298 D299:G299 BE299:CL299 D300:G300 D301:G301 BI301:CL301 D302:G302 D303:G303 BM303:CL303 D304:G304 AU304:CL304 D305:G305 D306:G306 BC306:CL306 D307:G307 AU307:CL307 D308:G308 AU308:CL308 D309:G309 AU309:CL309 D310:G310 AU310:CL310 D311:G311 AU311:CL311 D312:G312 AU312:CL312 D313:G313 AU313:CL313 D314:G314 D315:G315 AW315:CL315 D316:G316 D317:G317 AU317:CL317 D318:G318 AW318:CL318 D319:G319 BA319:CL319 D320:G320 AW320:CL320 D321:G321 AY321:CL321 D322:G322 BA322:CL322 D323:G323 AY323:CL323 D324:G324 AU324:CL324 D325:G325 BC325:CL325 D326:G326 D327:G327 AY327:CL327 D328:G328 AY328:CL328 D329:G329 AY329:CL329 D330:G330 AW330:CL330 D331:G331 AW331:CL331 D332:G332 AY332:CL332 D333:G333 D334:G334 AW334:CL334 D335:G335 AU335:CL335 D336:G336 AW336:CL336 D337:G337 AU337:CL337 D338:G338 AU338:CL338 D339:G339 BA339:CL339 D340:G340 AY340:CL340 D341:G341 AY341:CL341 D342:G342 AY342:CL342 D343:G343 AY343:CL343 D344:G344 AW344:CL344 D345:G345 AW345:CL345 D346:G346 AY346:CL346 D347:G347 BA347:CL347 D348:G348 BA348:CL348 D349:G349 AW349:CL349 D350:G350 D351:G351 BC351:CL351 D352:G352 AW352:CL352 D353:G353 AU353:CL353 D354:G354 AY354:CL354 D355:G355 AY355:CL355 D356:G356 AU356:CL356 D357:G357 AY357:CL357 D358:G358 BA358:CL358 D359:G359 BA359:CL359 D360:G360 AY360:CL360 D361:G361 AW361:CL361 D362:G362 BC362:CL362 D363:G363 BI363:CL363 D364:G364 BM364:CL364 D365:G365 AY365:CL365 D366:G366 AU366:CL366 D367:G367 BA367:CL367 D368:G368 BA368:CL368 D369:G369 D370:G370 AY370:CL370 D371:G371 D372:G372 BW372:CL372 D373:G373 AU373:CL373 D374:G374 D375:G375 AU375:CL375 D376:G376 AW376:CL376 D377:G377 BA377:CL377 D378:G378 AW378:CL378 D379:G379 BA379:CL379 D380:G380 AY380:CL380 D381:G381 BA381:CL381 D382:G382 AY382:CL382 D383:G383 AY383:CL383 D384:G384 BC384:CL384 D385:G385 AW385:CL385 D386:G386 AY386:CL386 D387:G387 BC387:CL387 D388:G388 BC388:CL388 D389:G389 AY389:CL389 D390:G390 BA390:CL390 D391:G391 AW391:CL391 D392:G392 AY392:CL392 D393:G393 BE393:CL393 D394:G394 BE394:CL394 D395:G395 AY395:CL395 D396:G396 BA396:CL396 D397:G397 BC397:CL397 D398:G398 BA398:CL398 D399:G399 BA399:CL399 D400:G400 BE400:CL400 D401:G401 AY401:CL401 D402:G402 BC402:CL402 D403:G403 BC403:CL403 D404:G404 BG404:CL404 D405:G405 AY405:CL405 D406:G406 AY406:CL406 B16:B406 D14:G15 B14:B15 A1:A2 N14:AR14 AW14:CL14 N15:AR15 AW15:CL15" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -34403,7 +34403,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:F2 H1:K2 A3:K4 M3:CP4 M1:CP2" numberStoredAsText="1"/>
+    <ignoredError sqref="M1:CP2 M3:CP4 A3:K4 H1:K2 A1:F2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
